--- a/hardware/xiaogyan.v1.xlsx
+++ b/hardware/xiaogyan.v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Documents\Repo\xiaogyan\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F290146-56BF-4C0B-B2F3-736AAC049BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74AB35B-F13B-47F8-9647-DBA2572158DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>Part</t>
   </si>
@@ -382,6 +382,14 @@
   </si>
   <si>
     <t>XIAO ESP32C3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MPS-04-0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-10089</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -741,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -767,8 +775,8 @@
         <v>76</v>
       </c>
       <c r="E1">
-        <f>SUM(E4:E46)</f>
-        <v>2360</v>
+        <f>SUM(E4:E50)</f>
+        <v>2420</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1714,6 +1722,74 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
+    <row r="47" spans="1:11">
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardware/xiaogyan.v1.xlsx
+++ b/hardware/xiaogyan.v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Documents\Repo\xiaogyan\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74AB35B-F13B-47F8-9647-DBA2572158DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068B8C2C-4396-4630-BFFF-C19E4FCF5BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
   <si>
     <t>Part</t>
   </si>
@@ -390,6 +390,28 @@
   </si>
   <si>
     <t>P-10089</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細ピンヘッダ</t>
+    <rPh sb="0" eb="1">
+      <t>ホソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細ピンソケット</t>
+    <rPh sb="0" eb="1">
+      <t>ホソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-04398</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-10073</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -460,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -469,6 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -749,7 +772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -775,8 +798,8 @@
         <v>76</v>
       </c>
       <c r="E1">
-        <f>SUM(E4:E50)</f>
-        <v>2420</v>
+        <f>SUM(E4:E52)</f>
+        <v>2520</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1294,409 +1317,413 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
+    <row r="31" spans="1:11" s="6" customFormat="1">
+      <c r="A31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>940</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>2024</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>2005</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>1798</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="6">
         <v>1642</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32">
+    <row r="32" spans="1:11" s="6" customFormat="1">
+      <c r="B32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="6">
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
+        <v>20</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="6" customFormat="1">
+      <c r="B33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
         <v>80</v>
       </c>
-      <c r="G32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32">
-        <v>3664</v>
-      </c>
-      <c r="I32">
-        <v>3664</v>
-      </c>
-      <c r="J32">
-        <v>3650</v>
-      </c>
-      <c r="K32">
-        <v>3642</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>140</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="G33" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="H33">
-        <v>561</v>
-      </c>
-      <c r="I33">
-        <v>506</v>
-      </c>
-      <c r="J33">
-        <v>486</v>
-      </c>
-      <c r="K33">
-        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34">
-        <v>257</v>
+        <v>3664</v>
       </c>
       <c r="I34">
-        <v>256</v>
+        <v>3664</v>
       </c>
       <c r="J34">
-        <v>235</v>
+        <v>3650</v>
       </c>
       <c r="K34">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="5" customFormat="1">
-      <c r="A35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="5">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
-      <c r="F35" s="5">
-        <v>50</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="5">
-        <v>2</v>
-      </c>
-      <c r="J35" s="5">
-        <v>42</v>
-      </c>
-      <c r="K35" s="5">
-        <v>31</v>
+      <c r="E35">
+        <v>140</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35">
+        <v>561</v>
+      </c>
+      <c r="I35">
+        <v>506</v>
+      </c>
+      <c r="J35">
+        <v>486</v>
+      </c>
+      <c r="K35">
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36">
+        <v>257</v>
+      </c>
+      <c r="I36">
+        <v>256</v>
+      </c>
+      <c r="J36">
+        <v>235</v>
+      </c>
+      <c r="K36">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="5" customFormat="1">
+      <c r="A37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>50</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2</v>
+      </c>
+      <c r="J37" s="5">
+        <v>42</v>
+      </c>
+      <c r="K37" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>100</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>58</v>
       </c>
-      <c r="H36">
+      <c r="H38">
         <v>2848</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>2844</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <v>2816</v>
       </c>
-      <c r="K36">
+      <c r="K38">
         <v>2809</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>220</v>
-      </c>
-      <c r="G37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37">
-        <v>412</v>
-      </c>
-      <c r="I37">
-        <v>409</v>
-      </c>
-      <c r="J37">
-        <v>399</v>
-      </c>
-      <c r="K37">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5">
-        <v>80</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G39" t="s">
         <v>58</v>
       </c>
       <c r="H39">
-        <v>4278</v>
+        <v>412</v>
       </c>
       <c r="I39">
-        <v>3880</v>
+        <v>409</v>
       </c>
       <c r="J39">
-        <v>2561</v>
+        <v>399</v>
+      </c>
+      <c r="K39">
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40">
+      <c r="A40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5">
         <v>1</v>
       </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40">
-        <v>4278</v>
-      </c>
-      <c r="I40">
-        <v>3880</v>
-      </c>
-      <c r="J40">
-        <v>2561</v>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <v>80</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>58</v>
       </c>
       <c r="H41">
+        <v>4278</v>
+      </c>
+      <c r="I41">
+        <v>3880</v>
+      </c>
+      <c r="J41">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42">
+        <v>4278</v>
+      </c>
+      <c r="I42">
+        <v>3880</v>
+      </c>
+      <c r="J42">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43">
         <v>2000</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>2000</v>
       </c>
-      <c r="J41">
+      <c r="J43">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="4" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
         <v>50</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
         <v>10454</v>
       </c>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1709,7 +1736,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="3" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1723,38 +1750,34 @@
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>58</v>
-      </c>
+      <c r="A47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
+      <c r="A48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
@@ -1787,6 +1810,40 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
         <v>58</v>
       </c>
     </row>

--- a/hardware/xiaogyan.v1.xlsx
+++ b/hardware/xiaogyan.v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Documents\Repo\xiaogyan\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068B8C2C-4396-4630-BFFF-C19E4FCF5BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF155CF8-F58F-452C-8E34-E4847FEB31FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="0" windowWidth="30525" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
   <si>
     <t>Part</t>
   </si>
@@ -373,10 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(R7)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(C3)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -412,6 +408,18 @@
   </si>
   <si>
     <t>C-10073</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(R8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-09285</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000p</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -799,7 +807,7 @@
       </c>
       <c r="E1">
         <f>SUM(E4:E52)</f>
-        <v>2520</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -905,32 +913,11 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10">
-        <v>340</v>
-      </c>
-      <c r="I10">
-        <v>330</v>
-      </c>
-      <c r="J10">
-        <v>306</v>
-      </c>
-      <c r="K10">
-        <v>284</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -941,7 +928,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11">
+        <v>340</v>
+      </c>
+      <c r="I11">
+        <v>330</v>
+      </c>
+      <c r="J11">
+        <v>306</v>
+      </c>
+      <c r="K11">
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -952,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1205,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1216,25 +1224,33 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="6">
+        <v>100</v>
+      </c>
+      <c r="E26" s="6">
+        <v>180</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
@@ -1317,69 +1333,69 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <v>940</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31">
         <v>2024</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31">
         <v>2005</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31">
         <v>1798</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31">
         <v>1642</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1">
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:11">
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="E32" s="6">
-        <v>20</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="6" customFormat="1">
-      <c r="B33" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="E33">
         <v>80</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1781,10 +1797,10 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
         <v>96</v>
-      </c>
-      <c r="C49" t="s">
-        <v>97</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1798,10 +1814,10 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
         <v>96</v>
-      </c>
-      <c r="C50" t="s">
-        <v>97</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1815,10 +1831,10 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
         <v>96</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1832,10 +1848,10 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
         <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
       </c>
       <c r="D52">
         <v>1</v>
